--- a/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ0" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ18" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ16" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ7" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ17" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ0" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,9 +466,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.162464409619549</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>3.732546773445493</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999938309903715</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3109351337440305</v>
+        <v>0.4214315114584923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5603742581032246</v>
+        <v>0.4219506113385876</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.676458140613049</v>
+        <v>-1.577995300908223</v>
       </c>
       <c r="C4" t="n">
-        <v>8.548517583390769e-06</v>
+        <v>2.736025984902517e-05</v>
       </c>
     </row>
     <row r="5">
@@ -503,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7827790257238301</v>
+        <v>-0.6530920784726528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05625523237513184</v>
+        <v>0.1016488651388731</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.011607835693315</v>
+        <v>-0.6286651386222883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05396209148469269</v>
+        <v>0.2570338894602825</v>
       </c>
     </row>
     <row r="7">
@@ -529,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3787278298854186</v>
+        <v>-0.3918791407321444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09184941937225026</v>
+        <v>0.07804888024448678</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005521154221596878</v>
+        <v>0.0006008864412811157</v>
       </c>
       <c r="C8" t="n">
-        <v>5.335006554919243e-06</v>
+        <v>5.379360008710744e-07</v>
       </c>
     </row>
     <row r="9">
@@ -555,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.008336673341528567</v>
+        <v>0.002492534467150276</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4116809015842409</v>
+        <v>0.8047521563304363</v>
       </c>
     </row>
     <row r="10">
@@ -568,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2929752558261462</v>
+        <v>-0.2937816092148369</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2430330837836393</v>
+        <v>0.2342636306298692</v>
       </c>
     </row>
     <row r="11">
@@ -581,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.558361232526695</v>
+        <v>1.402682167999573</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001062714899418709</v>
+        <v>0.0004581281790885475</v>
       </c>
     </row>
     <row r="12">
@@ -594,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3833521806982577</v>
+        <v>0.6226248505954159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4444226663602452</v>
+        <v>0.2161157109812436</v>
       </c>
     </row>
     <row r="13">
@@ -607,7 +609,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001211455629329684</v>
+        <v>-0.0001530143636561052</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -618,7 +620,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.767595761859144e-06</v>
+        <v>4.843407513736459e-08</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -629,11 +631,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7626685106566949</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.999997408987998</v>
-      </c>
+        <v>-0.3103165871079878</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -642,11 +642,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4251871143152328</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999993192505102</v>
-      </c>
+        <v>0.2282562050570351</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -655,11 +653,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.807630138173147</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999996756851692</v>
-      </c>
+        <v>-2.071790793022438</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -668,11 +664,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08805939879525253</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999962440149589</v>
-      </c>
+        <v>-0.07304564467112315</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -681,10 +675,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02981880540834466</v>
+        <v>-0.01767265115296533</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999977925406494</v>
+        <v>0.9999993038743143</v>
       </c>
     </row>
     <row r="20">
@@ -694,11 +688,9 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.483895064492474</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998204996345</v>
-      </c>
+        <v>1.812414203736543</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -707,11 +699,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.22929845297812</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998022661568</v>
-      </c>
+        <v>2.381227330126091</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -720,11 +710,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.001953760255547944</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.999999210367248</v>
-      </c>
+        <v>0.0005608092687608608</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -769,7 +757,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.675693737130917</v>
+        <v>5.295217319035692</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -780,10 +768,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4529821268225728</v>
+        <v>0.7489138055990423</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3746940200924569</v>
+        <v>0.1603145043646989</v>
       </c>
     </row>
     <row r="4">
@@ -793,10 +781,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.346635750894187</v>
+        <v>-1.775446921919218</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002578433159692867</v>
+        <v>2.701945974022034e-06</v>
       </c>
     </row>
     <row r="5">
@@ -806,10 +794,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.3286266263168997</v>
+        <v>-0.9361647551770103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.420336886887025</v>
+        <v>0.0256129581430143</v>
       </c>
     </row>
     <row r="6">
@@ -819,10 +807,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6754532436265651</v>
+        <v>-0.955432226261864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2026780663298398</v>
+        <v>0.07038827020501105</v>
       </c>
     </row>
     <row r="7">
@@ -832,10 +820,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3517091450994819</v>
+        <v>-0.4607434832538405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1042390877745667</v>
+        <v>0.03800111710586435</v>
       </c>
     </row>
     <row r="8">
@@ -845,10 +833,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005824935926757217</v>
+        <v>0.0005426596608004164</v>
       </c>
       <c r="C8" t="n">
-        <v>9.48221198953295e-07</v>
+        <v>8.010290354248948e-06</v>
       </c>
     </row>
     <row r="9">
@@ -858,10 +846,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002020201183054795</v>
+        <v>0.01201957758830261</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8402247047554201</v>
+        <v>0.2457979867705872</v>
       </c>
     </row>
     <row r="10">
@@ -871,10 +859,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2951525620776902</v>
+        <v>-0.2143553909505817</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2356732253184922</v>
+        <v>0.4008486000537119</v>
       </c>
     </row>
     <row r="11">
@@ -884,10 +872,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.387917001320875</v>
+        <v>1.633869095050739</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004583029073523892</v>
+        <v>0.0002792738545986899</v>
       </c>
     </row>
     <row r="12">
@@ -897,10 +885,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.615926341413136</v>
+        <v>0.5976505961278282</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2117594362972886</v>
+        <v>0.2736554815058769</v>
       </c>
     </row>
     <row r="13">
@@ -910,9 +898,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0004187757820899045</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>-0.0005150228207510801</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.999999315032939</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -921,9 +911,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.717785712806044e-07</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>1.277620118613761e-06</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999995595993439</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -932,10 +924,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4559862935675479</v>
+        <v>-0.4133297989043492</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999984988511722</v>
+        <v>0.9999996998459648</v>
       </c>
     </row>
     <row r="16">
@@ -945,9 +937,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3311854416485184</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.3319075953376431</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999996505040591</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -956,10 +950,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.583095926943169</v>
+        <v>-2.943373629477707</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999987139949421</v>
+        <v>0.999999829380209</v>
       </c>
     </row>
     <row r="18">
@@ -969,9 +963,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08418548075303965</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.09368532271994022</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999964288998954</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -980,9 +976,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02449934638487639</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.03434439196443043</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999991431390652</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -991,9 +989,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.266336228562471</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2.573458627386223</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998577250151</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1002,9 +1002,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.969302472474768</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>3.382795134005958</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999998903112199</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1013,9 +1015,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.537216638062718e-05</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>-0.000754192112338001</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9999998694856549</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1060,9 +1064,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.268392823057372</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>5.345999579307263</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.999998490346213</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1071,10 +1077,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3256654399738113</v>
+        <v>0.3539981680771517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5518675674169524</v>
+        <v>0.507298891995654</v>
       </c>
     </row>
     <row r="4">
@@ -1084,10 +1090,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.372186877074917</v>
+        <v>-1.654727131399491</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003114021734966429</v>
+        <v>1.217797373932786e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1097,10 +1103,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7445476106585753</v>
+        <v>-0.6218510768340471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07103979956255593</v>
+        <v>0.1330921554671983</v>
       </c>
     </row>
     <row r="6">
@@ -1110,10 +1116,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6719789052357382</v>
+        <v>-1.094473916180533</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2143035003347453</v>
+        <v>0.03425752285015068</v>
       </c>
     </row>
     <row r="7">
@@ -1123,10 +1129,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3528805345553455</v>
+        <v>-0.3126874303715335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1363445377007402</v>
+        <v>0.1577440702934672</v>
       </c>
     </row>
     <row r="8">
@@ -1136,10 +1142,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006234349666676457</v>
+        <v>0.0004724654352843782</v>
       </c>
       <c r="C8" t="n">
-        <v>3.629954997329574e-07</v>
+        <v>5.293737505901652e-05</v>
       </c>
     </row>
     <row r="9">
@@ -1149,10 +1155,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009741140421441958</v>
+        <v>0.005190413459173408</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3365947678810391</v>
+        <v>0.6064902176420723</v>
       </c>
     </row>
     <row r="10">
@@ -1162,10 +1168,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2834831862498445</v>
+        <v>-0.2634124444011832</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2573347140795254</v>
+        <v>0.2990730889304383</v>
       </c>
     </row>
     <row r="11">
@@ -1175,10 +1181,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.335736598100998</v>
+        <v>1.702406037002085</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0009138988536684322</v>
+        <v>4.043480774280439e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1188,10 +1194,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4022011328209694</v>
+        <v>0.6156038339214934</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4371824190815065</v>
+        <v>0.2295598160180071</v>
       </c>
     </row>
     <row r="13">
@@ -1201,7 +1207,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001178183137642653</v>
+        <v>-0.0003225303074537171</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -1212,10 +1218,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.819098654278057e-07</v>
+        <v>5.768404207377465e-07</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999986031095135</v>
+        <v>0.9999996380375258</v>
       </c>
     </row>
     <row r="15">
@@ -1225,7 +1231,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2367062240415604</v>
+        <v>-0.3904005610167898</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1236,7 +1242,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2438217266619182</v>
+        <v>0.2692615015950846</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -1247,11 +1253,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.819259780094797</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999996823063625</v>
-      </c>
+        <v>-2.977400653984378</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1260,7 +1264,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07857753496257809</v>
+        <v>-0.09452004229092514</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -1271,9 +1275,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01535488678995864</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.02727816797198288</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999995038883045</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1282,7 +1288,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.590787437911227</v>
+        <v>2.598577437236302</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -1293,11 +1299,9 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.09040983350767</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999997585859903</v>
-      </c>
+        <v>3.421967939125147</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1306,11 +1310,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001533172888654515</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999992663422893</v>
-      </c>
+        <v>-0.0002410525401223168</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1355,11 +1357,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.666576691510292</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999959393024175</v>
-      </c>
+        <v>3.628782418838474</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5458138899275196</v>
+        <v>0.1512904749734671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3140024885279189</v>
+        <v>0.7824649770789749</v>
       </c>
     </row>
     <row r="4">
@@ -1381,10 +1381,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.510051142525122</v>
+        <v>-1.297778136537629</v>
       </c>
       <c r="C4" t="n">
-        <v>8.574181417442213e-05</v>
+        <v>0.0006789091015121996</v>
       </c>
     </row>
     <row r="5">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4048351247717609</v>
+        <v>-0.2276032121812745</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3256542758430198</v>
+        <v>0.5847039327043336</v>
       </c>
     </row>
     <row r="6">
@@ -1407,10 +1407,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7361970294246927</v>
+        <v>-0.8221016866032281</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1693475919880273</v>
+        <v>0.1104718490057059</v>
       </c>
     </row>
     <row r="7">
@@ -1420,10 +1420,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.223951536928323</v>
+        <v>-0.2128894449842064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3371625411613842</v>
+        <v>0.3652051642937507</v>
       </c>
     </row>
     <row r="8">
@@ -1433,10 +1433,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004989456968048975</v>
+        <v>0.0005800399612117489</v>
       </c>
       <c r="C8" t="n">
-        <v>1.980768322411892e-05</v>
+        <v>6.98427231529685e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006003568954252594</v>
+        <v>0.003714185504494513</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5434072134039252</v>
+        <v>0.7101584954730211</v>
       </c>
     </row>
     <row r="10">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2224216548804774</v>
+        <v>-0.3505458612718511</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3728472044579682</v>
+        <v>0.1587885159410689</v>
       </c>
     </row>
     <row r="11">
@@ -1472,10 +1472,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.46658205005602</v>
+        <v>1.590258173077975</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003000478021606821</v>
+        <v>6.736257542833262e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1485,10 +1485,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6103072300544268</v>
+        <v>0.8308853236648177</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2185683301358008</v>
+        <v>0.09348269295275251</v>
       </c>
     </row>
     <row r="13">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.001019098606778847</v>
+        <v>0.0001525429546214129</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.437200561993915e-06</v>
+        <v>-8.504455415621402e-07</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -1520,7 +1520,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.698195176358713</v>
+        <v>-0.2136474350717086</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4240933474272894</v>
+        <v>0.2287867866140193</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.535685041490437</v>
+        <v>-2.028837945239592</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -1553,7 +1553,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07928390264146026</v>
+        <v>-0.08053917715649768</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0304862646558261</v>
+        <v>-0.01887277437736865</v>
       </c>
       <c r="C19" t="inlineStr"/>
     </row>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.245616652416559</v>
+        <v>1.76895309157461</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.91641614300031</v>
+        <v>2.33104896252263</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -1597,11 +1597,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.002041510788866698</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.999998963996546</v>
-      </c>
+        <v>0.001518765570627406</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1646,7 +1644,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.398467435896737</v>
+        <v>3.546945566182558</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1657,10 +1655,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5392275963811199</v>
+        <v>0.373156827064258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3206598749225207</v>
+        <v>0.5053959677906079</v>
       </c>
     </row>
     <row r="4">
@@ -1670,10 +1668,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.51788859096974</v>
+        <v>-1.470403365337736</v>
       </c>
       <c r="C4" t="n">
-        <v>6.794580603947906e-05</v>
+        <v>0.0001732126222767145</v>
       </c>
     </row>
     <row r="5">
@@ -1683,10 +1681,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4895171573780422</v>
+        <v>-0.6579287819263637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2403988110878733</v>
+        <v>0.1197557912817922</v>
       </c>
     </row>
     <row r="6">
@@ -1696,10 +1694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.048246540974424</v>
+        <v>-0.7651831371255298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04963369806992172</v>
+        <v>0.1570080532338866</v>
       </c>
     </row>
     <row r="7">
@@ -1709,10 +1707,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3508693385238954</v>
+        <v>-0.4089483782255</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1266905416921149</v>
+        <v>0.08200874657891088</v>
       </c>
     </row>
     <row r="8">
@@ -1722,10 +1720,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006298279171460173</v>
+        <v>0.0006757684805015978</v>
       </c>
       <c r="C8" t="n">
-        <v>3.670224764665309e-07</v>
+        <v>2.025396642052958e-07</v>
       </c>
     </row>
     <row r="9">
@@ -1735,10 +1733,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007600355054526925</v>
+        <v>0.01538223845595919</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4631457241177812</v>
+        <v>0.1517025508468954</v>
       </c>
     </row>
     <row r="10">
@@ -1748,10 +1746,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3617230857753658</v>
+        <v>-0.2423205131795422</v>
       </c>
       <c r="C10" t="n">
-        <v>0.151903971585323</v>
+        <v>0.3450087500354472</v>
       </c>
     </row>
     <row r="11">
@@ -1761,10 +1759,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.516595072151149</v>
+        <v>1.679314198523905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003463991476967983</v>
+        <v>4.262786769617797e-05</v>
       </c>
     </row>
     <row r="12">
@@ -1774,10 +1772,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4901920605619832</v>
+        <v>0.338490711865422</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3494691715076647</v>
+        <v>0.5090055773991364</v>
       </c>
     </row>
     <row r="13">
@@ -1787,7 +1785,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00109284633958451</v>
+        <v>-0.000504574225259394</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -1798,11 +1796,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.66169099471981e-06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999979224233089</v>
-      </c>
+        <v>9.283512681216597e-07</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1811,7 +1807,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.7015060260833457</v>
+        <v>-0.4586789371437235</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1822,7 +1818,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4338786838666378</v>
+        <v>0.3576291421868673</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -1833,7 +1829,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.382032265191257</v>
+        <v>-1.938786267363247</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -1844,7 +1840,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07371816266813426</v>
+        <v>-0.07920446523465782</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -1855,9 +1851,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03047994770517306</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.02411858821179439</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999912257780664</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1866,7 +1864,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.114094447129932</v>
+        <v>1.713228238529499</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -1877,7 +1875,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.739928286102501</v>
+        <v>2.229040959167788</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -1888,11 +1886,9 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.00217582169867302</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999989672736521</v>
-      </c>
+        <v>-0.0001138543013737773</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1937,9 +1933,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.245289389662587</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>5.284011452430274</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999987455394596</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1948,10 +1946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1259073363965697</v>
+        <v>0.1291443969837161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.819203930602721</v>
+        <v>0.8095293626467764</v>
       </c>
     </row>
     <row r="4">
@@ -1961,10 +1959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.339112809259372</v>
+        <v>-1.440073599865603</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005953301624569605</v>
+        <v>0.0001859713253738235</v>
       </c>
     </row>
     <row r="5">
@@ -1974,10 +1972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5927653565967096</v>
+        <v>-0.4344725491515724</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1538300814287463</v>
+        <v>0.3063577057665983</v>
       </c>
     </row>
     <row r="6">
@@ -1987,10 +1985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8444007772246194</v>
+        <v>-1.068948014950944</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1149422159982391</v>
+        <v>0.04818545850451016</v>
       </c>
     </row>
     <row r="7">
@@ -2000,10 +1998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2221344732867782</v>
+        <v>-0.2224717869694223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3585250284888523</v>
+        <v>0.3415430563974614</v>
       </c>
     </row>
     <row r="8">
@@ -2013,10 +2011,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000578620295710549</v>
+        <v>0.0005719146192154022</v>
       </c>
       <c r="C8" t="n">
-        <v>1.445926750351178e-06</v>
+        <v>3.920988319611834e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2026,10 +2024,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003873635291512619</v>
+        <v>0.007088898020872588</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6957883916091755</v>
+        <v>0.4923908113903938</v>
       </c>
     </row>
     <row r="10">
@@ -2039,10 +2037,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3308660337349124</v>
+        <v>-0.3887686783848579</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1823105765031303</v>
+        <v>0.1329391985957835</v>
       </c>
     </row>
     <row r="11">
@@ -2052,10 +2050,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.62713885926057</v>
+        <v>1.240064160615496</v>
       </c>
       <c r="C11" t="n">
-        <v>3.821150435812977e-05</v>
+        <v>0.002729061799630451</v>
       </c>
     </row>
     <row r="12">
@@ -2065,10 +2063,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7596355354023714</v>
+        <v>0.2317275769021369</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1282400445994561</v>
+        <v>0.6585053917501813</v>
       </c>
     </row>
     <row r="13">
@@ -2078,10 +2076,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.000369833590413555</v>
+        <v>-0.0007682523977122214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999996834917088</v>
+        <v>0.9999994116475258</v>
       </c>
     </row>
     <row r="14">
@@ -2091,11 +2089,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.283518341708727e-06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999989458890157</v>
-      </c>
+        <v>1.593625651972316e-06</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2104,10 +2100,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.1228995271152373</v>
+        <v>-0.6517437621580098</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999993867105316</v>
+        <v>0.9999993822727388</v>
       </c>
     </row>
     <row r="16">
@@ -2117,9 +2113,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2151699964539475</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.3875011669997773</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999995052726368</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2128,9 +2126,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.395669802712171</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-2.896199603564072</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999996064350004</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09068349114943948</v>
+        <v>-0.09262329345398997</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999958804775347</v>
+        <v>0.9999982695102252</v>
       </c>
     </row>
     <row r="19">
@@ -2152,9 +2152,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02258367039901946</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>-0.0282162372616344</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9999994703532857</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2163,9 +2165,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.07791212464523</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2.551069383305187</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998637522203</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2174,9 +2178,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.751747220264762</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>3.330268841764862</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999998113146238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2185,7 +2191,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.001868711862428242</v>
+        <v>-0.0009569869429910488</v>
       </c>
       <c r="C22" t="inlineStr"/>
     </row>
@@ -2232,9 +2238,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.325410328766065</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>4.307414526291788</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999986680864941</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2243,10 +2251,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4032426125717593</v>
+        <v>0.2913968871849136</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4581285861973944</v>
+        <v>0.5943238127670665</v>
       </c>
     </row>
     <row r="4">
@@ -2256,10 +2264,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.508721575021976</v>
+        <v>-1.428808459687603</v>
       </c>
       <c r="C4" t="n">
-        <v>9.896672066156272e-05</v>
+        <v>0.000219372217992905</v>
       </c>
     </row>
     <row r="5">
@@ -2269,10 +2277,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.8804089809045128</v>
+        <v>-0.6098108109374978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03425481920904715</v>
+        <v>0.1386135540973521</v>
       </c>
     </row>
     <row r="6">
@@ -2282,10 +2290,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8977317188778864</v>
+        <v>-0.4022603710587905</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09852105615717374</v>
+        <v>0.4868203771919869</v>
       </c>
     </row>
     <row r="7">
@@ -2295,10 +2303,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3925958151273693</v>
+        <v>-0.3613991801722501</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08815551553243921</v>
+        <v>0.1365227076246885</v>
       </c>
     </row>
     <row r="8">
@@ -2308,10 +2316,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006000411630105908</v>
+        <v>0.0006751085069240395</v>
       </c>
       <c r="C8" t="n">
-        <v>1.608294413555054e-06</v>
+        <v>6.85707052856305e-08</v>
       </c>
     </row>
     <row r="9">
@@ -2321,10 +2329,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00903935096433302</v>
+        <v>0.001594591557229908</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3841487299177859</v>
+        <v>0.8733276328925909</v>
       </c>
     </row>
     <row r="10">
@@ -2334,10 +2342,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1944127263445053</v>
+        <v>-0.1908012376513589</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4460732111712947</v>
+        <v>0.4384881539295731</v>
       </c>
     </row>
     <row r="11">
@@ -2347,10 +2355,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.389374355188319</v>
+        <v>1.338425521607559</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005453838515043623</v>
+        <v>0.0007224587414961811</v>
       </c>
     </row>
     <row r="12">
@@ -2360,10 +2368,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2090734775456402</v>
+        <v>0.5599785249398396</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6812730858523661</v>
+        <v>0.2568231160921964</v>
       </c>
     </row>
     <row r="13">
@@ -2373,7 +2381,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0002209802928304931</v>
+        <v>-0.0006424445945185413</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -2384,7 +2392,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.596210125290754e-07</v>
+        <v>1.376181628766086e-06</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -2395,9 +2403,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3876343921583287</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.5532326179605045</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.99999927660549</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2406,9 +2416,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3051929868753272</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.3654818115075956</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999995131924027</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2417,10 +2429,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.965388651563784</v>
+        <v>-2.356292675956288</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999992552898351</v>
+        <v>0.9999997649581119</v>
       </c>
     </row>
     <row r="18">
@@ -2430,7 +2442,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09294750007324902</v>
+        <v>-0.07934801156515123</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -2441,10 +2453,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02872632537970689</v>
+        <v>-0.02517620258060202</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999988620099703</v>
+        <v>0.9999992103226047</v>
       </c>
     </row>
     <row r="20">
@@ -2454,9 +2466,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.589579318428096</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>2.079120996482896</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9999998817978392</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2465,9 +2479,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.407999845871831</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>2.709403579241984</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999998629233915</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2476,9 +2492,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>7.858130126812183e-05</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>-0.0006671573842516882</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9999998391069448</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2523,10 +2541,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.042433592236478</v>
+        <v>4.216041752642114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999990373407819</v>
+        <v>0.9999985109000424</v>
       </c>
     </row>
     <row r="3">
@@ -2536,10 +2554,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8069386011550347</v>
+        <v>0.5701237576076696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.133418538872775</v>
+        <v>0.2675609530000506</v>
       </c>
     </row>
     <row r="4">
@@ -2549,10 +2567,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.850814468025163</v>
+        <v>-1.5269945795213</v>
       </c>
       <c r="C4" t="n">
-        <v>8.978856667558001e-07</v>
+        <v>3.196720993549566e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2562,10 +2580,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.7330496882150394</v>
+        <v>-0.730341694702294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07225098385032618</v>
+        <v>0.06819092175432394</v>
       </c>
     </row>
     <row r="6">
@@ -2575,10 +2593,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7559261564143525</v>
+        <v>-0.5261387104840716</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1634120899893341</v>
+        <v>0.3294797468254996</v>
       </c>
     </row>
     <row r="7">
@@ -2588,10 +2606,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.5248435147747184</v>
+        <v>-0.3907694558975783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01908865243372355</v>
+        <v>0.07247534494611595</v>
       </c>
     </row>
     <row r="8">
@@ -2601,10 +2619,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006046888755296578</v>
+        <v>0.0005636788057659641</v>
       </c>
       <c r="C8" t="n">
-        <v>9.096132558994314e-07</v>
+        <v>1.70117410768096e-06</v>
       </c>
     </row>
     <row r="9">
@@ -2614,10 +2632,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.009387637728959302</v>
+        <v>0.006927197125953621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3476813742395191</v>
+        <v>0.4773455634501872</v>
       </c>
     </row>
     <row r="10">
@@ -2627,10 +2645,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2614627685819073</v>
+        <v>-0.2901042457997212</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3064786942352226</v>
+        <v>0.2444623089718195</v>
       </c>
     </row>
     <row r="11">
@@ -2640,10 +2658,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.344346095808784</v>
+        <v>1.348897975828564</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001260704808283273</v>
+        <v>0.000601786309916371</v>
       </c>
     </row>
     <row r="12">
@@ -2653,10 +2671,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4879239853067987</v>
+        <v>0.4432517298403733</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3442517734587657</v>
+        <v>0.3664685671879584</v>
       </c>
     </row>
     <row r="13">
@@ -2666,10 +2684,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0003860862813614522</v>
+        <v>-0.0005932396811411259</v>
       </c>
       <c r="C13" t="n">
-        <v>0.999993678211215</v>
+        <v>0.9999985198372994</v>
       </c>
     </row>
     <row r="14">
@@ -2679,10 +2697,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.153966035947387e-07</v>
+        <v>1.189141083457507e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999998394407859</v>
+        <v>0.9999991907967732</v>
       </c>
     </row>
     <row r="15">
@@ -2692,11 +2710,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4009745536100918</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999993276185339</v>
-      </c>
+        <v>-0.5101158458414881</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2705,7 +2721,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3125677475062641</v>
+        <v>0.3783430181081835</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -2716,11 +2732,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.231637063479806</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999997491939582</v>
-      </c>
+        <v>-2.311075657760627</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2729,11 +2743,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07796802390490847</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999981295809166</v>
-      </c>
+        <v>-0.07637514779518227</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2742,10 +2754,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02169201077201447</v>
+        <v>-0.02402609559517518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9999996775713921</v>
+        <v>0.9999984444137042</v>
       </c>
     </row>
     <row r="20">
@@ -2755,7 +2767,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.959510489330486</v>
+        <v>2.037916403397263</v>
       </c>
       <c r="C20" t="inlineStr"/>
     </row>
@@ -2766,7 +2778,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.565213365185524</v>
+        <v>2.657080122627943</v>
       </c>
       <c r="C21" t="inlineStr"/>
     </row>
@@ -2777,10 +2789,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-8.794844843338937e-05</v>
+        <v>-0.0007317786615011117</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999999760256314</v>
+        <v>0.9999997487399006</v>
       </c>
     </row>
   </sheetData>
@@ -2826,11 +2838,9 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.492186905380343</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999992989002401</v>
-      </c>
+        <v>4.300599039502563</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2839,10 +2849,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2811668711111726</v>
+        <v>0.767907802257269</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6069439649654091</v>
+        <v>0.1708838823915533</v>
       </c>
     </row>
     <row r="4">
@@ -2852,10 +2862,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.652138731339696</v>
+        <v>-1.604701479848863</v>
       </c>
       <c r="C4" t="n">
-        <v>1.867526957038163e-05</v>
+        <v>3.549777877234348e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2865,10 +2875,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5717183963466912</v>
+        <v>-0.6811358696898396</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1772428750639442</v>
+        <v>0.1008504119016427</v>
       </c>
     </row>
     <row r="6">
@@ -2878,10 +2888,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7638173851577728</v>
+        <v>-1.128997079080528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1714790655902257</v>
+        <v>0.0385572022362575</v>
       </c>
     </row>
     <row r="7">
@@ -2891,10 +2901,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3184099822856412</v>
+        <v>-0.3521744473876528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1687731953957106</v>
+        <v>0.1415532065320471</v>
       </c>
     </row>
     <row r="8">
@@ -2904,10 +2914,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005310447333220876</v>
+        <v>0.0005100984514470803</v>
       </c>
       <c r="C8" t="n">
-        <v>1.267724678922043e-05</v>
+        <v>2.932982196182916e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2917,10 +2927,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003971307940161866</v>
+        <v>0.006867614656323732</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7060748518575075</v>
+        <v>0.4973207120048324</v>
       </c>
     </row>
     <row r="10">
@@ -2930,10 +2940,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2162631566469573</v>
+        <v>-0.2069897116442903</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3976253703244439</v>
+        <v>0.4109122388995488</v>
       </c>
     </row>
     <row r="11">
@@ -2943,10 +2953,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.868783426249658</v>
+        <v>1.590056801804538</v>
       </c>
       <c r="C11" t="n">
-        <v>8.375933276639398e-06</v>
+        <v>7.065945530074307e-05</v>
       </c>
     </row>
     <row r="12">
@@ -2956,10 +2966,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9689467919294747</v>
+        <v>0.6517382955043852</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06078808627002639</v>
+        <v>0.197379315265937</v>
       </c>
     </row>
     <row r="13">
@@ -2969,7 +2979,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0005436995954010219</v>
+        <v>-0.0009740014153717132</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -2980,11 +2990,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.69840024912398e-07</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.999999713194389</v>
-      </c>
+        <v>2.092330145254241e-06</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2993,9 +3001,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4431104948296476</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.663328207948331</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999982590816834</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3004,10 +3014,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3093140836008502</v>
+        <v>0.4451051613018372</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999992514028972</v>
+        <v>0.9999992029489538</v>
       </c>
     </row>
     <row r="17">
@@ -3017,10 +3027,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.911040667837095</v>
+        <v>-2.332381311246617</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999988829685028</v>
+        <v>0.99999964488657</v>
       </c>
     </row>
     <row r="18">
@@ -3030,11 +3040,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07101560727082994</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999949883060133</v>
-      </c>
+        <v>-0.07445454028001294</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3043,11 +3051,9 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.02007180071943896</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999995760593865</v>
-      </c>
+        <v>-0.02636764316819762</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -3056,10 +3062,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.686375288697743</v>
+        <v>2.069296398571501</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9999998927627853</v>
+        <v>0.9999998253644184</v>
       </c>
     </row>
     <row r="21">
@@ -3069,9 +3075,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.197303903972336</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>2.682528307518635</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9999998161647339</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3080,10 +3088,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0001780328820863817</v>
+        <v>-0.001506448624955181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9999999689145754</v>
+        <v>0.9999991684957388</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,253 +466,205 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.732546773445493</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999938309903715</v>
-      </c>
+        <v>1.204976558884611</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4214315114584923</v>
+        <v>0.03381880331499627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4219506113385876</v>
+        <v>0.7774193834089095</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.577995300908223</v>
+        <v>0.0007067995435108677</v>
       </c>
       <c r="C4" t="n">
-        <v>2.736025984902517e-05</v>
+        <v>1.634446412125456e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6530920784726528</v>
+        <v>0.007572175545296372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1016488651388731</v>
+        <v>0.4160687756557391</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6286651386222883</v>
+        <v>-0.2558876436220469</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2570338894602825</v>
+        <v>0.279469714814329</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3918791407321444</v>
+        <v>1.214207456438666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07804888024448678</v>
+        <v>0.002024254312565531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006008864412811157</v>
+        <v>0.4075918719988214</v>
       </c>
       <c r="C8" t="n">
-        <v>5.379360008710744e-07</v>
+        <v>0.4073130664582402</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002492534467150276</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8047521563304363</v>
-      </c>
+        <v>0.001758020507542375</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2937816092148369</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2342636306298692</v>
-      </c>
+        <v>-5.027022103991955e-06</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.402682167999573</v>
+        <v>0.4798133287494888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004581281790885475</v>
+        <v>0.9999990975031245</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6226248505954159</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2161157109812436</v>
-      </c>
+        <v>0.1797852575704217</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0001530143636561052</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>0.5909584966339999</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999998879747806</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.843407513736459e-08</v>
+        <v>-0.08469356986484097</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3103165871079878</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.01495405939701787</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999989129290476</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2282562050570351</v>
+        <v>0.3179842434010935</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.071790793022438</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.1511591849089418</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999999366378288</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07304564467112315</v>
+        <v>0.006119866271754577</v>
       </c>
       <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01767265115296533</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999993038743143</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.812414203736543</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.381227330126091</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0005608092687608608</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -725,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,269 +709,197 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.295217319035692</v>
+        <v>2.127489708397152</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7489138055990423</v>
+        <v>0.1167970726743321</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1603145043646989</v>
+        <v>0.3487296784761572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.775446921919218</v>
+        <v>0.0006958089400389227</v>
       </c>
       <c r="C4" t="n">
-        <v>2.701945974022034e-06</v>
+        <v>3.656712069582291e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.9361647551770103</v>
+        <v>0.01702369437763885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0256129581430143</v>
+        <v>0.07591587208304371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.955432226261864</v>
+        <v>-0.1771872474578811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07038827020501105</v>
+        <v>0.4657187392635701</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4607434832538405</v>
+        <v>1.383220856633053</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03800111710586435</v>
+        <v>0.001648645540693664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005426596608004164</v>
+        <v>0.3861708850460353</v>
       </c>
       <c r="C8" t="n">
-        <v>8.010290354248948e-06</v>
+        <v>0.4678545086657653</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01201957758830261</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2457979867705872</v>
-      </c>
+        <v>0.00230288569513397</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2143553909505817</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4008486000537119</v>
-      </c>
+        <v>-6.199509410643694e-06</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.633869095050739</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002792738545986899</v>
-      </c>
+        <v>0.7368016546794751</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5976505961278282</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2736554815058769</v>
-      </c>
+        <v>0.2493419734854309</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0005150228207510801</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.999999315032939</v>
-      </c>
+        <v>1.054658821841474</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.277620118613761e-06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999995595993439</v>
-      </c>
+        <v>-0.112256515323286</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4133297989043492</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999996998459648</v>
-      </c>
+        <v>-0.03052170712644552</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3319075953376431</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999996505040591</v>
-      </c>
+        <v>0.5527070302136344</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.943373629477707</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.999999829380209</v>
-      </c>
+        <v>-0.2808370339118948</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09368532271994022</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999964288998954</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.03434439196443043</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999991431390652</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.573458627386223</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998577250151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.382795134005958</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998903112199</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.000754192112338001</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998694856549</v>
-      </c>
+        <v>0.007332409554329677</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1032,7 +912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,255 +944,209 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.345999579307263</v>
+        <v>1.817747194532254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999998490346213</v>
+        <v>0.9999995817908161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3539981680771517</v>
+        <v>0.1070353211961419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.507298891995654</v>
+        <v>0.3830270914616525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.654727131399491</v>
+        <v>0.0006139345602490179</v>
       </c>
       <c r="C4" t="n">
-        <v>1.217797373932786e-05</v>
+        <v>6.254733492459882e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6218510768340471</v>
+        <v>0.01182522922148678</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1330921554671983</v>
+        <v>0.204386244876657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.094473916180533</v>
+        <v>-0.236409345066718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03425752285015068</v>
+        <v>0.3270790490490249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3126874303715335</v>
+        <v>1.430814181094465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1577440702934672</v>
+        <v>0.0003946362996252278</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0004724654352843782</v>
+        <v>0.3532160896407596</v>
       </c>
       <c r="C8" t="n">
-        <v>5.293737505901652e-05</v>
+        <v>0.4761029516968153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.005190413459173408</v>
+        <v>0.002375744863233507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6064902176420723</v>
+        <v>0.9999983092021582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2634124444011832</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2990730889304383</v>
-      </c>
+        <v>-6.527063508931208e-06</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.702406037002085</v>
+        <v>0.7319038497960548</v>
       </c>
       <c r="C11" t="n">
-        <v>4.043480774280439e-05</v>
+        <v>0.9999994387062964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6156038339214934</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2295598160180071</v>
-      </c>
+        <v>0.1757053922197993</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0003225303074537171</v>
+        <v>0.8893879230296312</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.768404207377465e-07</v>
+        <v>-0.1057123011594031</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999996380375258</v>
+        <v>0.9999972548508831</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.3904005610167898</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.02075962037632602</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.999999702892424</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2692615015950846</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.4777297884886388</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999999262511408</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.977400653984378</v>
+        <v>-0.2247764702253244</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09452004229092514</v>
+        <v>0.007493765690261597</v>
       </c>
       <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02727816797198288</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999995038883045</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.598577437236302</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.421967939125147</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0002410525401223168</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1325,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1357,249 +1191,209 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.628782418838474</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0.3844513711183452</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.999999610776988</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1512904749734671</v>
+        <v>0.04619796811382551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7824649770789749</v>
+        <v>0.6974009071803855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.297778136537629</v>
+        <v>0.0006859482643524508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006789091015121996</v>
+        <v>1.455729720986741e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2276032121812745</v>
+        <v>0.008385194941407379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5847039327043336</v>
+        <v>0.3674223184478499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.8221016866032281</v>
+        <v>-0.3313013393345297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1104718490057059</v>
+        <v>0.1666330917243173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2128894449842064</v>
+        <v>1.400839361227378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3652051642937507</v>
+        <v>0.0003622925713441359</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005800399612117489</v>
+        <v>0.6233434070411383</v>
       </c>
       <c r="C8" t="n">
-        <v>6.98427231529685e-07</v>
+        <v>0.2001653137038333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003714185504494513</v>
+        <v>0.001932591872457421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7101584954730211</v>
+        <v>0.9999981458980399</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3505458612718511</v>
+        <v>-5.403959229842157e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1587885159410689</v>
+        <v>0.9999959924977472</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.590258173077975</v>
+        <v>0.5343735433312756</v>
       </c>
       <c r="C11" t="n">
-        <v>6.736257542833262e-05</v>
+        <v>0.9999992328355868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8308853236648177</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09348269295275251</v>
-      </c>
+        <v>0.1605896555794227</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001525429546214129</v>
+        <v>0.147676418023194</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-8.504455415621402e-07</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>-0.08043553209731241</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.999994086077081</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2136474350717086</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>-0.01117759242207087</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999996248791934</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.2287867866140193</v>
+        <v>0.1283268151678231</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.028837945239592</v>
+        <v>0.003180693884660522</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.08053917715649768</v>
+        <v>0.006440864373655849</v>
       </c>
       <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.01887277437736865</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.76895309157461</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.33104896252263</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.001518765570627406</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1612,7 +1406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1644,251 +1438,213 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.546945566182558</v>
+        <v>1.381560813959029</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.373156827064258</v>
+        <v>-0.003112426459675412</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5053959677906079</v>
+        <v>0.9798510528972094</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.470403365337736</v>
+        <v>0.00079714435269924</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001732126222767145</v>
+        <v>2.863244331157493e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6579287819263637</v>
+        <v>0.02126007820534451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1197557912817922</v>
+        <v>0.03419940362474282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.7651831371255298</v>
+        <v>-0.1877676447965028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1570080532338866</v>
+        <v>0.4478510498262593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4089483782255</v>
+        <v>1.449815955129653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08200874657891088</v>
+        <v>0.0003268549076665617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006757684805015978</v>
+        <v>0.110431443923114</v>
       </c>
       <c r="C8" t="n">
-        <v>2.025396642052958e-07</v>
+        <v>0.825684157190314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01538223845595919</v>
+        <v>0.001451804110464067</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1517025508468954</v>
+        <v>0.9999991160956047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2423205131795422</v>
+        <v>-4.24239583878826e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3450087500354472</v>
+        <v>0.999998604964128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.679314198523905</v>
+        <v>0.3537498731548927</v>
       </c>
       <c r="C11" t="n">
-        <v>4.262786769617797e-05</v>
+        <v>0.9999997839007795</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.338490711865422</v>
+        <v>0.2851578656553972</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5090055773991364</v>
+        <v>0.9999997551623538</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.000504574225259394</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>0.7001249515720367</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999999614799233</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.283512681216597e-07</v>
+        <v>-0.09462043344899429</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.4586789371437235</v>
+        <v>-0.02261259406718193</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3576291421868673</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.3542199206366458</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999999841586306</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.938786267363247</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.2025856555852176</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999999944548684</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07920446523465782</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02411858821179439</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999912257780664</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1.713228238529499</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.229040959167788</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0001138543013737773</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>0.00548524213308086</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999992083183313</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1901,7 +1657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1933,267 +1689,207 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.284011452430274</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999987455394596</v>
-      </c>
+        <v>3.023824457180865</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1291443969837161</v>
+        <v>0.08911807209684725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8095293626467764</v>
+        <v>0.4748823306511298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.440073599865603</v>
+        <v>0.0006904041405094167</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001859713253738235</v>
+        <v>1.07460934523729e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4344725491515724</v>
+        <v>0.01370304714705704</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3063577057665983</v>
+        <v>0.1512880508446281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.068948014950944</v>
+        <v>-0.3269947006322531</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04818545850451016</v>
+        <v>0.1862912799022484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.2224717869694223</v>
+        <v>0.9703490273789591</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3415430563974614</v>
+        <v>0.01715380148566988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005719146192154022</v>
+        <v>-0.04307211189046669</v>
       </c>
       <c r="C8" t="n">
-        <v>3.920988319611834e-06</v>
+        <v>0.932610746853614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007088898020872588</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4923908113903938</v>
-      </c>
+        <v>0.002416627117451618</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3887686783848579</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1329391985957835</v>
-      </c>
+        <v>-6.935712211433312e-06</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.240064160615496</v>
+        <v>0.6439786507167313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002729061799630451</v>
+        <v>0.9999982918977279</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2317275769021369</v>
+        <v>0.2697583095595897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6585053917501813</v>
+        <v>0.9999992935019923</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0007682523977122214</v>
+        <v>1.542489343421295</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999994116475258</v>
+        <v>0.9999997137805218</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.593625651972316e-06</v>
+        <v>-0.1229075129502055</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.6517437621580098</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9999993822727388</v>
-      </c>
+        <v>-0.02439867770455272</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3875011669997773</v>
+        <v>0.7577568514400933</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999995052726368</v>
+        <v>0.9999998565055593</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.896199603564072</v>
+        <v>-0.4540743971535218</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999996064350004</v>
+        <v>0.9999999645427979</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.09262329345398997</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999982695102252</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.0282162372616344</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999994703532857</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.551069383305187</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998637522203</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3.330268841764862</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998113146238</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0009569869429910488</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>0.008311255241024522</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2206,7 +1902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2238,265 +1934,203 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.307414526291788</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999986680864941</v>
-      </c>
+        <v>2.199165359568803</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2913968871849136</v>
+        <v>0.04546122354311166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5943238127670665</v>
+        <v>0.717396402748217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.428808459687603</v>
+        <v>0.0007659769389803207</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000219372217992905</v>
+        <v>3.335808645594553e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6098108109374978</v>
+        <v>0.00722681178704574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1386135540973521</v>
+        <v>0.4377758042459782</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4022603710587905</v>
+        <v>-0.1720327950816026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4868203771919869</v>
+        <v>0.4692518365206412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3613991801722501</v>
+        <v>1.174848518195693</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1365227076246885</v>
+        <v>0.00273456844578482</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0006751085069240395</v>
+        <v>0.3418022723326848</v>
       </c>
       <c r="C8" t="n">
-        <v>6.85707052856305e-08</v>
+        <v>0.4790921961419734</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001594591557229908</v>
+        <v>0.001837649741823529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8733276328925909</v>
+        <v>0.9999979977439799</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1908012376513589</v>
+        <v>-5.248801972803168e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4384881539295731</v>
+        <v>0.9999951845816387</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.338425521607559</v>
+        <v>0.4651886076322224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0007224587414961811</v>
+        <v>0.999999156527684</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5599785249398396</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2568231160921964</v>
-      </c>
+        <v>0.2800705287729476</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0006424445945185413</v>
+        <v>1.123146853829548</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.376181628766086e-06</v>
+        <v>-0.1015136871547949</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5532326179605045</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.99999927660549</v>
-      </c>
+        <v>-0.02298005243052903</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3654818115075956</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999995131924027</v>
-      </c>
+        <v>0.5531210633237837</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.356292675956288</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999997649581119</v>
-      </c>
+        <v>-0.3324611734575809</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07934801156515123</v>
+        <v>0.006517448053296386</v>
       </c>
       <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02517620258060202</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999992103226047</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.079120996482896</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998817978392</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.709403579241984</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998629233915</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0006671573842516882</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999998391069448</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2509,7 +2143,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2541,259 +2175,209 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.216041752642114</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9999985109000424</v>
-      </c>
+        <v>2.056263613720195</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5701237576076696</v>
+        <v>0.08669398342314558</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2675609530000506</v>
+        <v>0.4702275029752199</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.5269945795213</v>
+        <v>0.000667762872740757</v>
       </c>
       <c r="C4" t="n">
-        <v>3.196720993549566e-05</v>
+        <v>6.499618559021289e-09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.730341694702294</v>
+        <v>0.01130240323017491</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06819092175432394</v>
+        <v>0.2145308886980679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.5261387104840716</v>
+        <v>-0.2135582189893257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3294797468254996</v>
+        <v>0.3713289684167637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3907694558975783</v>
+        <v>1.173524297568965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07247534494611595</v>
+        <v>0.002490813129498879</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005636788057659641</v>
+        <v>0.25841407980021</v>
       </c>
       <c r="C8" t="n">
-        <v>1.70117410768096e-06</v>
+        <v>0.5893296973508102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006927197125953621</v>
+        <v>0.001779875972086072</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4773455634501872</v>
+        <v>0.9999983987705195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2901042457997212</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2444623089718195</v>
-      </c>
+        <v>-5.119313657896483e-06</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.348897975828564</v>
+        <v>0.4638815759486177</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000601786309916371</v>
+        <v>0.9999994610998805</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4432517298403733</v>
+        <v>0.3055811585201293</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3664685671879584</v>
+        <v>0.9999994554001282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0005932396811411259</v>
+        <v>1.047582477635057</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999985198372994</v>
+        <v>0.9999998431881096</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.189141083457507e-06</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999991907967732</v>
-      </c>
+        <v>-0.09869741430943714</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.5101158458414881</v>
+        <v>-0.02295232189562839</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3783430181081835</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.5201378343348931</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999999458441569</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.311075657760627</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.3077882900483223</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999999821034952</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07637514779518227</v>
+        <v>0.006156382186645946</v>
       </c>
       <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02402609559517518</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9999984444137042</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.037916403397263</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.657080122627943</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0007317786615011117</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999997487399006</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2806,7 +2390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2838,260 +2422,214 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.300599039502563</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>2.439577382718817</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999994958934073</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.767907802257269</v>
+        <v>0.1827388755856605</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1708838823915533</v>
+        <v>0.1526614760331759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.604701479848863</v>
+        <v>0.0006519830320063356</v>
       </c>
       <c r="C4" t="n">
-        <v>3.549777877234348e-05</v>
+        <v>3.211642622176366e-08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6811358696898396</v>
+        <v>0.01242871093479482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008504119016427</v>
+        <v>0.1856551491536345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.128997079080528</v>
+        <v>-0.1986551079383754</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0385572022362575</v>
+        <v>0.4099535396713163</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3521744473876528</v>
+        <v>1.344679500200643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1415532065320471</v>
+        <v>0.0005970810691605745</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0005100984514470803</v>
+        <v>0.4114471477188876</v>
       </c>
       <c r="C8" t="n">
-        <v>2.932982196182916e-05</v>
+        <v>0.4018566753512257</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.006867614656323732</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4973207120048324</v>
-      </c>
+        <v>0.001675525474023464</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.2069897116442903</v>
+        <v>-4.969445710772356e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4109122388995488</v>
+        <v>0.9999991075354062</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.590056801804538</v>
+        <v>0.4460578274432644</v>
       </c>
       <c r="C11" t="n">
-        <v>7.065945530074307e-05</v>
+        <v>0.9999997730320649</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6517382955043852</v>
+        <v>0.3314205812000017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.197379315265937</v>
+        <v>0.999998498813519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0009740014153717132</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>1.253932960724729</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999999438066421</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.092330145254241e-06</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>-0.1033638179966576</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999978683563625</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.663328207948331</v>
+        <v>-0.02672159687285465</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999982590816834</v>
+        <v>0.9999997407114414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4451051613018372</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999992029489538</v>
-      </c>
+        <v>0.609693310120748</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.332381311246617</v>
+        <v>-0.3791041033493243</v>
       </c>
       <c r="C17" t="n">
-        <v>0.99999964488657</v>
+        <v>0.9999999879845904</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IntersecDensity</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07445454028001294</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.02636764316819762</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2.069296398571501</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.9999998253644184</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2.682528307518635</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9999998161647339</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.001506448624955181</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9999991684957388</v>
+        <v>0.006106737152926193</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999991295461665</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Potsdam.xlsx
@@ -466,9 +466,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.204976558884611</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0.05688129806868258</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999999689799458</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03381880331499627</v>
+        <v>0.03381880331499644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7774193834089095</v>
+        <v>0.7774193834089105</v>
       </c>
     </row>
     <row r="4">
@@ -490,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0007067995435108677</v>
+        <v>0.000706799543510868</v>
       </c>
       <c r="C4" t="n">
-        <v>1.634446412125456e-09</v>
+        <v>1.63444641212567e-09</v>
       </c>
     </row>
     <row r="5">
@@ -503,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.007572175545296372</v>
+        <v>0.007572175545296385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4160687756557391</v>
+        <v>0.4160687756557884</v>
       </c>
     </row>
     <row r="6">
@@ -516,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2558876436220469</v>
+        <v>-0.2558876436220464</v>
       </c>
       <c r="C6" t="n">
-        <v>0.279469714814329</v>
+        <v>0.2794697148143344</v>
       </c>
     </row>
     <row r="7">
@@ -532,7 +534,7 @@
         <v>1.214207456438666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002024254312565531</v>
+        <v>0.002024254312565699</v>
       </c>
     </row>
     <row r="8">
@@ -542,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4075918719988214</v>
+        <v>0.4075918719988212</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4073130664582402</v>
+        <v>0.4073130664582429</v>
       </c>
     </row>
     <row r="9">
@@ -555,9 +557,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001758020507542375</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>0.01969453474274895</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9999999201981372</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -566,9 +570,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.027022103991955e-06</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>-0.05522284263870596</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9999999891686393</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -577,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4798133287494888</v>
+        <v>-0.1414102435304741</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999990975031245</v>
+        <v>0.9999999096949374</v>
       </c>
     </row>
     <row r="12">
@@ -590,7 +596,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1797852575704217</v>
+        <v>-0.2636226103292341</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -601,11 +607,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5909584966339999</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999998879747806</v>
-      </c>
+        <v>-0.05265219003390743</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -614,9 +618,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08469356986484097</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>-0.1008943440742213</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9999980331040825</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -625,10 +631,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01495405939701787</v>
+        <v>0.00332657752229637</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999989129290476</v>
+        <v>0.9999999408765888</v>
       </c>
     </row>
     <row r="16">
@@ -638,9 +644,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3179842434010935</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1477612903532445</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999990887350909</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -649,11 +657,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1511591849089418</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999999366378288</v>
-      </c>
+        <v>-0.06771353967832983</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -662,9 +668,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006119866271754577</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.08171296134129637</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999998398727198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -709,9 +717,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.127489708397152</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0.07553133468730319</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999999970037707</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -720,10 +730,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1167970726743321</v>
+        <v>0.1167970726743317</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3487296784761572</v>
+        <v>0.3487296784761827</v>
       </c>
     </row>
     <row r="4">
@@ -736,7 +746,7 @@
         <v>0.0006958089400389227</v>
       </c>
       <c r="C4" t="n">
-        <v>3.656712069582291e-09</v>
+        <v>3.656712069589031e-09</v>
       </c>
     </row>
     <row r="5">
@@ -749,7 +759,7 @@
         <v>0.01702369437763885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07591587208304371</v>
+        <v>0.07591587208301538</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +769,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1771872474578811</v>
+        <v>-0.1771872474578816</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4657187392635701</v>
+        <v>0.4657187392636236</v>
       </c>
     </row>
     <row r="7">
@@ -772,10 +782,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.383220856633053</v>
+        <v>1.383220856633052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001648645540693664</v>
+        <v>0.001648645540693806</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +795,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3861708850460353</v>
+        <v>0.3861708850460339</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4678545086657653</v>
+        <v>0.4678545086657568</v>
       </c>
     </row>
     <row r="9">
@@ -798,7 +808,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00230288569513397</v>
+        <v>0.02552720825104988</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -809,7 +819,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.199509410643694e-06</v>
+        <v>-0.07469294417238756</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -820,7 +830,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7368016546794751</v>
+        <v>-0.1843474311973581</v>
       </c>
       <c r="C11" t="inlineStr"/>
     </row>
@@ -831,9 +841,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2493419734854309</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>-0.3435228642304713</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.999999909085093</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -842,7 +854,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.054658821841474</v>
+        <v>-0.05430617843750014</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -853,9 +865,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.112256515323286</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>-0.1393191695705954</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.999999388173149</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -864,9 +878,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.03052170712644552</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>0.001898489551294727</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999999926611097</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -875,9 +891,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5527070302136344</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.2050052979062424</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999998115961931</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -886,9 +904,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2808370339118948</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.07691496094662376</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999998307691814</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -897,9 +917,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007332409554329677</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.1324545277936818</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999998674269508</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -944,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.817747194532254</v>
+        <v>0.08442483101541977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999995817908161</v>
+        <v>0.9999993086394118</v>
       </c>
     </row>
     <row r="3">
@@ -960,7 +982,7 @@
         <v>0.1070353211961419</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3830270914616525</v>
+        <v>0.383027091461656</v>
       </c>
     </row>
     <row r="4">
@@ -973,7 +995,7 @@
         <v>0.0006139345602490179</v>
       </c>
       <c r="C4" t="n">
-        <v>6.254733492459882e-08</v>
+        <v>6.254733492458953e-08</v>
       </c>
     </row>
     <row r="5">
@@ -983,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01182522922148678</v>
+        <v>0.01182522922148676</v>
       </c>
       <c r="C5" t="n">
-        <v>0.204386244876657</v>
+        <v>0.204386244876639</v>
       </c>
     </row>
     <row r="6">
@@ -996,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.236409345066718</v>
+        <v>-0.236409345066719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3270790490490249</v>
+        <v>0.3270790490490207</v>
       </c>
     </row>
     <row r="7">
@@ -1009,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.430814181094465</v>
+        <v>1.430814181094464</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003946362996252278</v>
+        <v>0.0003946362996252212</v>
       </c>
     </row>
     <row r="8">
@@ -1022,10 +1044,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3532160896407596</v>
+        <v>0.353216089640759</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4761029516968153</v>
+        <v>0.4761029516968102</v>
       </c>
     </row>
     <row r="9">
@@ -1035,11 +1057,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002375744863233507</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9999983092021582</v>
-      </c>
+        <v>0.02274557019571886</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1048,9 +1068,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.527063508931208e-06</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>-0.08288358540719937</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.9999999144939306</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1059,11 +1081,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7319038497960548</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999994387062964</v>
-      </c>
+        <v>-0.2064854442746174</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1072,7 +1092,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1757053922197993</v>
+        <v>-0.3976429906141822</v>
       </c>
       <c r="C12" t="inlineStr"/>
     </row>
@@ -1083,7 +1103,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8893879230296312</v>
+        <v>-0.05891895355736375</v>
       </c>
       <c r="C13" t="inlineStr"/>
     </row>
@@ -1094,11 +1114,9 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1057123011594031</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.9999972548508831</v>
-      </c>
+        <v>-0.1310828130124307</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1107,11 +1125,9 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02075962037632602</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.999999702892424</v>
-      </c>
+        <v>0.008586432093402393</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1120,11 +1136,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4777297884886388</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999999262511408</v>
-      </c>
+        <v>0.1994138222912679</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1133,7 +1147,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2247764702253244</v>
+        <v>-0.07520112546938057</v>
       </c>
       <c r="C17" t="inlineStr"/>
     </row>
@@ -1144,7 +1158,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007493765690261597</v>
+        <v>-0.1395774766074847</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -1191,10 +1205,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3844513711183452</v>
+        <v>0.04191044347532847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999999610776988</v>
+        <v>0.9999999907549932</v>
       </c>
     </row>
     <row r="3">
@@ -1204,10 +1218,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04619796811382551</v>
+        <v>0.04619796811382539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6974009071803855</v>
+        <v>0.6974009071803873</v>
       </c>
     </row>
     <row r="4">
@@ -1217,10 +1231,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006859482643524508</v>
+        <v>0.000685948264352451</v>
       </c>
       <c r="C4" t="n">
-        <v>1.455729720986741e-09</v>
+        <v>1.45572972098717e-09</v>
       </c>
     </row>
     <row r="5">
@@ -1230,10 +1244,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.008385194941407379</v>
+        <v>0.008385194941407352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3674223184478499</v>
+        <v>0.36742231844786</v>
       </c>
     </row>
     <row r="6">
@@ -1243,10 +1257,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3313013393345297</v>
+        <v>-0.3313013393345303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1666330917243173</v>
+        <v>0.1666330917243157</v>
       </c>
     </row>
     <row r="7">
@@ -1256,10 +1270,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.400839361227378</v>
+        <v>1.400839361227377</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003622925713441359</v>
+        <v>0.0003622925713445243</v>
       </c>
     </row>
     <row r="8">
@@ -1269,10 +1283,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6233434070411383</v>
+        <v>0.6233434070411379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2001653137038333</v>
+        <v>0.2001653137038769</v>
       </c>
     </row>
     <row r="9">
@@ -1282,10 +1296,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001932591872457421</v>
+        <v>0.02225161197960469</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999981458980399</v>
+        <v>0.9999999453392926</v>
       </c>
     </row>
     <row r="10">
@@ -1295,10 +1309,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.403959229842157e-06</v>
+        <v>-0.04099446686162022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9999959924977472</v>
+        <v>0.9999999907316232</v>
       </c>
     </row>
     <row r="11">
@@ -1308,10 +1322,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5343735433312756</v>
+        <v>-0.1055239010192189</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999992328355868</v>
+        <v>0.99999997497044</v>
       </c>
     </row>
     <row r="12">
@@ -1321,9 +1335,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1605896555794227</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>-0.1881085412891501</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9999999374156862</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1332,9 +1348,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.147676418023194</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>-0.05800208243725356</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.999999865158976</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1343,10 +1361,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08043553209731241</v>
+        <v>-0.09018410199206725</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999994086077081</v>
+        <v>0.9999984480092809</v>
       </c>
     </row>
     <row r="15">
@@ -1356,10 +1374,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.01117759242207087</v>
+        <v>-0.001063258428972915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999996248791934</v>
+        <v>0.9999999784611197</v>
       </c>
     </row>
     <row r="16">
@@ -1369,9 +1387,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1283268151678231</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.1198050898162997</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999998090493231</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1380,9 +1400,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003180693884660522</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.05398003693104566</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.99999994056813</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1391,9 +1413,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006440864373655849</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>-0.0624854660134244</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9999999376806478</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1438,7 +1462,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.381560813959029</v>
+        <v>0.04080316534365946</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1449,10 +1473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.003112426459675412</v>
+        <v>-0.003112426459675338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9798510528972094</v>
+        <v>0.9798510528972098</v>
       </c>
     </row>
     <row r="4">
@@ -1462,10 +1486,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00079714435269924</v>
+        <v>0.0007971443526992402</v>
       </c>
       <c r="C4" t="n">
-        <v>2.863244331157493e-10</v>
+        <v>2.863244331157107e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1475,10 +1499,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02126007820534451</v>
+        <v>0.0212600782053445</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03419940362474282</v>
+        <v>0.03419940362474025</v>
       </c>
     </row>
     <row r="6">
@@ -1488,10 +1512,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1877676447965028</v>
+        <v>-0.187767644796503</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4478510498262593</v>
+        <v>0.4478510498262516</v>
       </c>
     </row>
     <row r="7">
@@ -1504,7 +1528,7 @@
         <v>1.449815955129653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003268549076665617</v>
+        <v>0.0003268549076665246</v>
       </c>
     </row>
     <row r="8">
@@ -1517,7 +1541,7 @@
         <v>0.110431443923114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.825684157190314</v>
+        <v>0.8256841571903132</v>
       </c>
     </row>
     <row r="9">
@@ -1527,11 +1551,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001451804110464067</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9999991160956047</v>
-      </c>
+        <v>0.02292640420697468</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1540,11 +1562,9 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.24239583878826e-06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.999998604964128</v>
-      </c>
+        <v>-0.04050422975291007</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1553,11 +1573,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3537498731548927</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999997839007795</v>
-      </c>
+        <v>-0.1027899756117216</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1566,10 +1584,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2851578656553972</v>
+        <v>-0.1690503888966796</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999997551623538</v>
+        <v>0.9999995617358004</v>
       </c>
     </row>
     <row r="13">
@@ -1579,10 +1597,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7001249515720367</v>
+        <v>-0.04995992858521196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999614799233</v>
+        <v>0.9999964949927688</v>
       </c>
     </row>
     <row r="14">
@@ -1592,7 +1610,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09462043344899429</v>
+        <v>-0.1103186619246895</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -1603,7 +1621,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02261259406718193</v>
+        <v>-0.005088291299420307</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1614,10 +1632,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3542199206366458</v>
+        <v>0.1438442853487679</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999999841586306</v>
+        <v>0.9999983544383787</v>
       </c>
     </row>
     <row r="17">
@@ -1627,10 +1645,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.2025856555852176</v>
+        <v>-0.07688367767492059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999944548684</v>
+        <v>0.9999990682349779</v>
       </c>
     </row>
     <row r="18">
@@ -1640,11 +1658,9 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.00548524213308086</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9999992083183313</v>
-      </c>
+        <v>-0.0674415331769255</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1689,7 +1705,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.023824457180865</v>
+        <v>0.1125888495133212</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -1700,10 +1716,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08911807209684725</v>
+        <v>0.08911807209684684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4748823306511298</v>
+        <v>0.4748823306511327</v>
       </c>
     </row>
     <row r="4">
@@ -1713,10 +1729,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006904041405094167</v>
+        <v>0.0006904041405094169</v>
       </c>
       <c r="C4" t="n">
-        <v>1.07460934523729e-08</v>
+        <v>1.074609345237345e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1726,10 +1742,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01370304714705704</v>
+        <v>0.01370304714705696</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1512880508446281</v>
+        <v>0.1512880508446339</v>
       </c>
     </row>
     <row r="6">
@@ -1739,10 +1755,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3269947006322531</v>
+        <v>-0.3269947006322537</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1862912799022484</v>
+        <v>0.1862912799022478</v>
       </c>
     </row>
     <row r="7">
@@ -1752,7 +1768,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9703490273789591</v>
+        <v>0.9703490273789581</v>
       </c>
       <c r="C7" t="n">
         <v>0.01715380148566988</v>
@@ -1765,10 +1781,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04307211189046669</v>
+        <v>-0.04307211189046614</v>
       </c>
       <c r="C8" t="n">
-        <v>0.932610746853614</v>
+        <v>0.9326107468536148</v>
       </c>
     </row>
     <row r="9">
@@ -1778,9 +1794,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.002416627117451618</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>0.02890884017976632</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9999993098330967</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1789,7 +1807,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.935712211433312e-06</v>
+        <v>-0.1097081822532325</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -1800,10 +1818,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6439786507167313</v>
+        <v>-0.2772043750004595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999982918977279</v>
+        <v>0.9999979990619507</v>
       </c>
     </row>
     <row r="12">
@@ -1813,10 +1831,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2697583095595897</v>
+        <v>-0.5325226931365337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999992935019923</v>
+        <v>0.9999979542538473</v>
       </c>
     </row>
     <row r="13">
@@ -1826,11 +1844,9 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.542489343421295</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9999997137805218</v>
-      </c>
+        <v>-0.0689350075688151</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1839,7 +1855,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1229075129502055</v>
+        <v>-0.1580824395406594</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -1850,7 +1866,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02439867770455272</v>
+        <v>0.01580112112771894</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -1861,10 +1877,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7577568514400933</v>
+        <v>0.2637777951905484</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9999998565055593</v>
+        <v>0.9999936821954845</v>
       </c>
     </row>
     <row r="17">
@@ -1874,10 +1890,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.4540743971535218</v>
+        <v>-0.1191496764856155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999645427979</v>
+        <v>0.9999976155249763</v>
       </c>
     </row>
     <row r="18">
@@ -1887,7 +1903,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008311255241024522</v>
+        <v>-0.1737430904631231</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -1934,9 +1950,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.199165359568803</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0.07272796086245718</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9999999669192783</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1945,7 +1963,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04546122354311166</v>
+        <v>0.04546122354311151</v>
       </c>
       <c r="C3" t="n">
         <v>0.717396402748217</v>
@@ -1961,7 +1979,7 @@
         <v>0.0007659769389803207</v>
       </c>
       <c r="C4" t="n">
-        <v>3.335808645594553e-10</v>
+        <v>3.335808645595099e-10</v>
       </c>
     </row>
     <row r="5">
@@ -1971,10 +1989,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00722681178704574</v>
+        <v>0.0072268117870457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4377758042459782</v>
+        <v>0.4377758042459712</v>
       </c>
     </row>
     <row r="6">
@@ -1984,10 +2002,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1720327950816026</v>
+        <v>-0.1720327950816029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4692518365206412</v>
+        <v>0.4692518365206374</v>
       </c>
     </row>
     <row r="7">
@@ -1997,10 +2015,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.174848518195693</v>
+        <v>1.174848518195692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00273456844578482</v>
+        <v>0.002734568445784804</v>
       </c>
     </row>
     <row r="8">
@@ -2013,7 +2031,7 @@
         <v>0.3418022723326848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4790921961419734</v>
+        <v>0.4790921961419748</v>
       </c>
     </row>
     <row r="9">
@@ -2023,10 +2041,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001837649741823529</v>
+        <v>0.02745848513385793</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9999979977439799</v>
+        <v>0.9999996501592425</v>
       </c>
     </row>
     <row r="10">
@@ -2036,11 +2054,9 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.248801972803168e-06</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9999951845816387</v>
-      </c>
+        <v>-0.07130366609407103</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2049,10 +2065,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4651886076322224</v>
+        <v>-0.1804129105621224</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999999156527684</v>
+        <v>0.999999750937019</v>
       </c>
     </row>
     <row r="12">
@@ -2062,9 +2078,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.2800705287729476</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>-0.3304729200702408</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9999984028029812</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2073,9 +2091,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.123146853829548</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>-0.0560659508751389</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999987173323257</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2084,7 +2104,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1015136871547949</v>
+        <v>-0.1264396717527496</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -2095,9 +2115,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02298005243052903</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>0.005385105647064928</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9999998029584933</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2106,7 +2128,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5531210633237837</v>
+        <v>0.1973100846283382</v>
       </c>
       <c r="C16" t="inlineStr"/>
     </row>
@@ -2117,9 +2139,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3324611734575809</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>-0.0956190933047055</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9999990354853215</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2128,7 +2152,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006517448053296386</v>
+        <v>-0.1161375291053484</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -2175,7 +2199,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.056263613720195</v>
+        <v>0.06523717059791621</v>
       </c>
       <c r="C2" t="inlineStr"/>
     </row>
@@ -2186,10 +2210,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08669398342314558</v>
+        <v>0.08669398342314615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4702275029752199</v>
+        <v>0.4702275029751661</v>
       </c>
     </row>
     <row r="4">
@@ -2199,10 +2223,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000667762872740757</v>
+        <v>0.0006677628727407562</v>
       </c>
       <c r="C4" t="n">
-        <v>6.499618559021289e-09</v>
+        <v>6.499618558933211e-09</v>
       </c>
     </row>
     <row r="5">
@@ -2212,10 +2236,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01130240323017491</v>
+        <v>0.0113024032301749</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2145308886980679</v>
+        <v>0.2145308886978924</v>
       </c>
     </row>
     <row r="6">
@@ -2225,10 +2249,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2135582189893257</v>
+        <v>-0.2135582189893261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3713289684167637</v>
+        <v>0.3713289684166964</v>
       </c>
     </row>
     <row r="7">
@@ -2238,10 +2262,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.173524297568965</v>
+        <v>1.173524297568966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002490813129498879</v>
+        <v>0.002490813129489689</v>
       </c>
     </row>
     <row r="8">
@@ -2251,10 +2275,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.25841407980021</v>
+        <v>0.2584140798002114</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5893296973508102</v>
+        <v>0.5893296973508035</v>
       </c>
     </row>
     <row r="9">
@@ -2264,11 +2288,9 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001779875972086072</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9999983987705195</v>
-      </c>
+        <v>0.02551186238272626</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2277,7 +2299,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-5.119313657896483e-06</v>
+        <v>-0.06562441158980821</v>
       </c>
       <c r="C10" t="inlineStr"/>
     </row>
@@ -2288,11 +2310,9 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4638815759486177</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999994610998805</v>
-      </c>
+        <v>-0.161248616569911</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2301,10 +2321,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3055811585201293</v>
+        <v>-0.2847708392841798</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9999994554001282</v>
+        <v>0.9999982494427464</v>
       </c>
     </row>
     <row r="13">
@@ -2314,10 +2334,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.047582477635057</v>
+        <v>-0.05515056214375092</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999998431881096</v>
+        <v>0.9999984989710067</v>
       </c>
     </row>
     <row r="14">
@@ -2327,7 +2347,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.09869741430943714</v>
+        <v>-0.1230829805305214</v>
       </c>
       <c r="C14" t="inlineStr"/>
     </row>
@@ -2338,7 +2358,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02295232189562839</v>
+        <v>0.003962308163176036</v>
       </c>
       <c r="C15" t="inlineStr"/>
     </row>
@@ -2349,11 +2369,9 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5201378343348931</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.9999999458441569</v>
-      </c>
+        <v>0.1909592842552732</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2362,11 +2380,9 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3077882900483223</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.9999999821034952</v>
-      </c>
+        <v>-0.0927175296022868</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2375,7 +2391,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006156382186645946</v>
+        <v>-0.1256424421273903</v>
       </c>
       <c r="C18" t="inlineStr"/>
     </row>
@@ -2422,10 +2438,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.439577382718817</v>
+        <v>0.06945602369826778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999994958934073</v>
+        <v>0.9999999874851684</v>
       </c>
     </row>
     <row r="3">
@@ -2435,10 +2451,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1827388755856605</v>
+        <v>0.1827388755856603</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1526614760331759</v>
+        <v>0.1526614760331783</v>
       </c>
     </row>
     <row r="4">
@@ -2448,10 +2464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006519830320063356</v>
+        <v>0.0006519830320063357</v>
       </c>
       <c r="C4" t="n">
-        <v>3.211642622176366e-08</v>
+        <v>3.211642622175967e-08</v>
       </c>
     </row>
     <row r="5">
@@ -2464,7 +2480,7 @@
         <v>0.01242871093479482</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1856551491536345</v>
+        <v>0.1856551491536773</v>
       </c>
     </row>
     <row r="6">
@@ -2474,10 +2490,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1986551079383754</v>
+        <v>-0.1986551079383752</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4099535396713163</v>
+        <v>0.4099535396713264</v>
       </c>
     </row>
     <row r="7">
@@ -2487,10 +2503,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.344679500200643</v>
+        <v>1.344679500200642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0005970810691605745</v>
+        <v>0.0005970810691603692</v>
       </c>
     </row>
     <row r="8">
@@ -2500,10 +2516,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4114471477188876</v>
+        <v>0.4114471477188863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4018566753512257</v>
+        <v>0.4018566753512338</v>
       </c>
     </row>
     <row r="9">
@@ -2513,7 +2529,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001675525474023464</v>
+        <v>0.0213871754063482</v>
       </c>
       <c r="C9" t="inlineStr"/>
     </row>
@@ -2524,10 +2540,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.969445710772356e-06</v>
+        <v>-0.06968169238238724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9999991075354062</v>
+        <v>0.9999999711379526</v>
       </c>
     </row>
     <row r="11">
@@ -2537,10 +2553,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4460578274432644</v>
+        <v>-0.1710198547233471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999997730320649</v>
+        <v>0.9999996723069727</v>
       </c>
     </row>
     <row r="12">
@@ -2550,10 +2566,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3314205812000017</v>
+        <v>-0.304355535605626</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999998498813519</v>
+        <v>0.9999996552165211</v>
       </c>
     </row>
     <row r="13">
@@ -2563,10 +2579,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.253932960724729</v>
+        <v>-0.05315069480307161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9999999438066421</v>
+        <v>0.9999994152143834</v>
       </c>
     </row>
     <row r="14">
@@ -2576,10 +2592,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1033638179966576</v>
+        <v>-0.1305461150814677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9999978683563625</v>
+        <v>0.9999975791719957</v>
       </c>
     </row>
     <row r="15">
@@ -2589,10 +2605,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02672159687285465</v>
+        <v>0.003953025127335917</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9999997407114414</v>
+        <v>0.9999999420134029</v>
       </c>
     </row>
     <row r="16">
@@ -2602,9 +2618,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.609693310120748</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.2042077270307369</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9999991995498396</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2613,10 +2631,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3791041033493243</v>
+        <v>-0.09958372110292506</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999879845904</v>
+        <v>0.9999994037970653</v>
       </c>
     </row>
     <row r="18">
@@ -2626,10 +2644,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.006106737152926193</v>
+        <v>-0.130207203921163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9999991295461665</v>
+        <v>0.9999996582792611</v>
       </c>
     </row>
   </sheetData>
